--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>797599.2469645879</v>
+        <v>795163.6100408812</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>199.317264769369</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>158.2604213107464</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>299.5215209693907</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>146.250656164862</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.2708408728599</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6936400577267</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>212.1989152844502</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.923658794391</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550706</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>134.5648130209086</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270.9949818151867</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953556104</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009521</v>
       </c>
       <c r="D13" t="n">
-        <v>57.68764556948323</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5845196044209</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754666</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>23.94516103140361</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819355</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>141.588808982505</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986305</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.9155582618878</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.54490042790958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176209</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.94196613735076</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503961</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>45.17596778974877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819399</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833336</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>46.1531967422092</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986261</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>45.17596778975091</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>191.609930436319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.67525987919323</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.723851760223</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.761334819812</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1022.495636213061</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1022.495636213061</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760223</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.4062285743616</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046014</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046014</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>970.0546934046014</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.0546934046014</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1892.963660013481</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3067.587217616203</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3067.587217616203</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3067.587217616203</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3067.587217616203</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2694.121459355123</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>332.8675597612654</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013482</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1892.963660013482</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1534.697961406732</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1148.909708808487</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>737.92380401888</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>322.8513538638765</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013482</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1701.540037289547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.437170415191</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1157.752682209304</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.752682209304</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>929.7631313112869</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.126367889647</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>808.0306171421921</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950447</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5110662246918</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246918</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
         <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197144</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604048</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260478</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990363</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729283</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753472</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831292</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104386</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>977.390502384806</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105395</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971143</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826862</v>
+        <v>203.8650582458557</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6713627826862</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
         <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691434</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544734</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>686.112406756456</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129259</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007883</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409639</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608053</v>
@@ -5279,19 +5279,19 @@
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072593</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593869</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635717</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>537.7313037187198</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>387.614664306384</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
         <v>92.81162322608053</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373416</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938114</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.9555321712451</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433382</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.487785285878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079991</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.38612704303</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145013</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014828</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,19 +5990,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706103</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063202</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718106</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741047</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085245</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879358</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842398</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443802</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>742.43104380085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121653</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121653</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121653</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121653</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057246</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778177</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654819</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830888</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,7 +6944,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,13 +6962,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622262</v>
+        <v>513.8536007400663</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343193</v>
+        <v>344.9174178121594</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998237</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>282.1478848544702</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4360536966683</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263524</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408908</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429804</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,10 +7336,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.285089135944</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.209862480142</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274255</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237294</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237294</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093764</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2427.089083702288</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2244.234249357192</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.632784380133</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.557557724331</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.873069518444</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.455899481483</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>963.4663485834658</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.7388598482938</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187057</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767571</v>
       </c>
       <c r="D13" t="n">
-        <v>90.92782744872912</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.29152613729053</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3016600672242</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922682</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>144.5956654067392</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823388</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.0397529241852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405068</v>
+        <v>145.6085800303773</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.8900140445865</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.4596884482317</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5336875992884</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823581</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>35.11263957635633</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>172.2294825375374</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>34.0997249527182</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.69998683092846</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913262.7360050146</v>
+        <v>913262.7360050149</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.632025467</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>999123.6320254673</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999123.6320254673</v>
+        <v>999123.632025467</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999123.6320254673</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26314,31 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
         <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.880109966</v>
+        <v>421406.8801099661</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372533</v>
       </c>
       <c r="I2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="J2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="K2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372534</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.964837253</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
@@ -26353,7 +26353,7 @@
         <v>423751.9648372533</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185155</v>
+        <v>143114.1392185164</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051373</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.32855115355</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848917</v>
+        <v>43782.40655848898</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224693</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26436,7 +26436,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26445,7 +26445,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26454,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1095985.824133382</v>
       </c>
       <c r="C6" t="n">
-        <v>232758.9215942103</v>
+        <v>232758.9215942106</v>
       </c>
       <c r="D6" t="n">
-        <v>232758.9215942107</v>
+        <v>232758.9215942106</v>
       </c>
       <c r="E6" t="n">
-        <v>146678.665296195</v>
+        <v>146468.7010523492</v>
       </c>
       <c r="F6" t="n">
-        <v>143582.9048604213</v>
+        <v>143536.9998648566</v>
       </c>
       <c r="G6" t="n">
-        <v>300295.1665259734</v>
+        <v>300260.4286005376</v>
       </c>
       <c r="H6" t="n">
-        <v>311462.4027615526</v>
+        <v>311427.6648361171</v>
       </c>
       <c r="I6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361167</v>
       </c>
       <c r="J6" t="n">
-        <v>93931.2003642753</v>
+        <v>93896.46243883931</v>
       </c>
       <c r="K6" t="n">
-        <v>311462.4027615524</v>
+        <v>311427.6648361168</v>
       </c>
       <c r="L6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361168</v>
       </c>
       <c r="M6" t="n">
-        <v>274085.0742103992</v>
+        <v>274050.3362849634</v>
       </c>
       <c r="N6" t="n">
-        <v>267679.9962030635</v>
+        <v>267645.2582776279</v>
       </c>
       <c r="O6" t="n">
-        <v>308439.1047843279</v>
+        <v>308404.3668588923</v>
       </c>
       <c r="P6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361167</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012581</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406356</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364188</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173581</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173589</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>207.5587809723424</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.986399787881396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.75137080161687</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>57.66731397475817</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.16312177370926</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24.01601533131048</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>82.40884910287031</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.317309923022</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.41917990352117</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>84.98413625526055</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.056646310541798e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.144319389745519e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-3.56324392939135e-13</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.141615776354493e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>219.8517740430746</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>192.7991225800938</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396507</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,7 +32558,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>307.4654529393634</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,13 +34211,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>181.6580975439405</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>77.71774012105629</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>58.8247151657635</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977657</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35741,13 +35741,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,7 +36206,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>173.4910455250332</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>35.9785935799765</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
